--- a/03.crawler/30.TecDoc/file/2.part/crawler_1.xlsx
+++ b/03.crawler/30.TecDoc/file/2.part/crawler_1.xlsx
@@ -41,33 +41,33 @@
     <t>Part Number</t>
   </si>
   <si>
+    <t>Aditional Description</t>
+  </si>
+  <si>
+    <t>GTIN/EAN</t>
+  </si>
+  <si>
+    <t>Packing Unit</t>
+  </si>
+  <si>
+    <t>Quantity Per Packaging Unit</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Remanufactured</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Aditional Description</t>
-  </si>
-  <si>
-    <t>GTIN/EAN</t>
+    <t>Trade Number</t>
+  </si>
+  <si>
+    <t>Mandatory Material Certification</t>
   </si>
   <si>
     <t>OEM</t>
   </si>
   <si>
-    <t>Trade Number</t>
-  </si>
-  <si>
-    <t>Mandatory Material Certification</t>
-  </si>
-  <si>
-    <t>Packing Unit</t>
-  </si>
-  <si>
-    <t>Quantity Per Packaging Unit</t>
-  </si>
-  <si>
     <t>Picture</t>
   </si>
   <si>
@@ -95,18 +95,18 @@
     <t>566001</t>
   </si>
   <si>
+    <t>EVERGUARD SILICONE SINGLE</t>
+  </si>
+  <si>
+    <t>3276425660014</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>EVERGUARD SILICONE SINGLE</t>
-  </si>
-  <si>
-    <t>3276425660014</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>VSF35</t>
   </si>
   <si>
@@ -119,7 +119,7 @@
     <t>{"0": {"Installation Information": "To apply the water repellent treatment on the windshield:\n1) Clean the windshield\n2) Operate wipers for 5 minutes without water (low speed)\n3) Now enjoy improved visibility"}}</t>
   </si>
   <si>
-    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "350 mm"}, "3": {"Length-2": "14 Inch"}, "4": {"Adapter enclosed": "A+C"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}}</t>
+    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "350 mm"}, "3": {"Length-2": "14 Inch"}, "4": {"Adapter enclosed": "A+C"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}, "7": {"Weight": "0.144 kg"}}</t>
   </si>
   <si>
     <t>566002</t>
@@ -137,7 +137,7 @@
     <t>{"0": "https://digital-assets.tecalliance.services/images/3200/ac3fd0fcfcab115d3225e7c5d607032b3fa98d64.jpg", "1": "https://digital-assets.tecalliance.services/images/3200/17e41a852cebf0da9c68163c594d952624504458.jpg", "2": "https://digital-assets.tecalliance.services/images/3200/261802a47f2bc05cdcd73ea0c3ffbe11de20aa12.jpg", "3": "https://digital-assets.tecalliance.services/images/3200/b9215e7ad2c8c76fe7b1b58d222b9dc8bf62df85.jpg", "4": "https://digital-assets.tecalliance.services/images/3200/72c4f93a8206e2e27ab815ce0f0f8fa761ec3b3c.jpg"}</t>
   </si>
   <si>
-    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "380 mm"}, "3": {"Length-2": "15 Inch"}, "4": {"Adapter enclosed": "A+B"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}}</t>
+    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "380 mm"}, "3": {"Length-2": "15 Inch"}, "4": {"Adapter enclosed": "A+B"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}, "7": {"Weight": "0.149 kg"}}</t>
   </si>
   <si>
     <t>566003</t>
@@ -155,7 +155,7 @@
     <t>{"0": "https://digital-assets.tecalliance.services/images/3200/83ef93cad30ad7aac9a025fbf0977f4c5d3d0281.jpg", "1": "https://digital-assets.tecalliance.services/images/3200/17e41a852cebf0da9c68163c594d952624504458.jpg", "2": "https://digital-assets.tecalliance.services/images/3200/6f52e722b3525a47469c8b3b84dff9dc8a617064.jpg", "3": "https://digital-assets.tecalliance.services/images/3200/b9215e7ad2c8c76fe7b1b58d222b9dc8bf62df85.jpg", "4": "https://digital-assets.tecalliance.services/images/3200/72c4f93a8206e2e27ab815ce0f0f8fa761ec3b3c.jpg"}</t>
   </si>
   <si>
-    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "400 mm"}, "3": {"Length-2": "16 Inch"}, "4": {"Adapter enclosed": "A+B+C"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}}</t>
+    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "400 mm"}, "3": {"Length-2": "16 Inch"}, "4": {"Adapter enclosed": "A+B+C"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}, "7": {"Weight": "0.153 kg"}}</t>
   </si>
   <si>
     <t>566004</t>
@@ -173,7 +173,7 @@
     <t>{"0": "https://digital-assets.tecalliance.services/images/3200/af3160c8973087da2830387bdea1cf58074822da.jpg", "1": "https://digital-assets.tecalliance.services/images/3200/17e41a852cebf0da9c68163c594d952624504458.jpg", "2": "https://digital-assets.tecalliance.services/images/3200/261802a47f2bc05cdcd73ea0c3ffbe11de20aa12.jpg", "3": "https://digital-assets.tecalliance.services/images/3200/b9215e7ad2c8c76fe7b1b58d222b9dc8bf62df85.jpg", "4": "https://digital-assets.tecalliance.services/images/3200/72c4f93a8206e2e27ab815ce0f0f8fa761ec3b3c.jpg"}</t>
   </si>
   <si>
-    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "430 mm"}, "3": {"Length-2": "17 Inch"}, "4": {"Adapter enclosed": "A+B"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}}</t>
+    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "430 mm"}, "3": {"Length-2": "17 Inch"}, "4": {"Adapter enclosed": "A+B"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}, "7": {"Weight": "0.157 kg"}}</t>
   </si>
   <si>
     <t>566005</t>
@@ -191,7 +191,7 @@
     <t>{"0": "https://digital-assets.tecalliance.services/images/3200/f2580fc877900af75ef2920481bf9c049a836d12.jpg", "1": "https://digital-assets.tecalliance.services/images/3200/17e41a852cebf0da9c68163c594d952624504458.jpg", "2": "https://digital-assets.tecalliance.services/images/3200/9ddf845abf1c0ed8ef9610f3580893202ca0fdce.jpg", "3": "https://digital-assets.tecalliance.services/images/3200/b9215e7ad2c8c76fe7b1b58d222b9dc8bf62df85.jpg", "4": "https://digital-assets.tecalliance.services/images/3200/72c4f93a8206e2e27ab815ce0f0f8fa761ec3b3c.jpg"}</t>
   </si>
   <si>
-    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "450 mm"}, "3": {"Length-2": "18 Inch"}, "4": {"Adapter enclosed": "A+B+C+E"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}}</t>
+    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "450 mm"}, "3": {"Length-2": "18 Inch"}, "4": {"Adapter enclosed": "A+B+C+E"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}, "7": {"Weight": "0.17 kg"}}</t>
   </si>
   <si>
     <t>566006</t>
@@ -209,7 +209,7 @@
     <t>{"0": "https://digital-assets.tecalliance.services/images/3200/bde35870b3834539fcc4800fd079d8af93efcbc7.jpg", "1": "https://digital-assets.tecalliance.services/images/3200/17e41a852cebf0da9c68163c594d952624504458.jpg", "2": "https://digital-assets.tecalliance.services/images/3200/2483a204b158930a47ca6e933def24297dca0a4f.jpg", "3": "https://digital-assets.tecalliance.services/images/3200/b9215e7ad2c8c76fe7b1b58d222b9dc8bf62df85.jpg", "4": "https://digital-assets.tecalliance.services/images/3200/72c4f93a8206e2e27ab815ce0f0f8fa761ec3b3c.jpg"}</t>
   </si>
   <si>
-    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "480 mm"}, "3": {"Length-2": "19 Inch"}, "4": {"Adapter enclosed": "A+B+E"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}}</t>
+    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "480 mm"}, "3": {"Length-2": "19 Inch"}, "4": {"Adapter enclosed": "A+B+E"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}, "7": {"Weight": "0.176 kg"}}</t>
   </si>
   <si>
     <t>566007</t>
@@ -227,7 +227,7 @@
     <t>{"0": "https://digital-assets.tecalliance.services/images/3200/8ae070dd1adc57ae777b1f11dcfc822e473da3cc.jpg", "1": "https://digital-assets.tecalliance.services/images/3200/17e41a852cebf0da9c68163c594d952624504458.jpg", "2": "https://digital-assets.tecalliance.services/images/3200/6f52e722b3525a47469c8b3b84dff9dc8a617064.jpg", "3": "https://digital-assets.tecalliance.services/images/3200/b9215e7ad2c8c76fe7b1b58d222b9dc8bf62df85.jpg", "4": "https://digital-assets.tecalliance.services/images/3200/72c4f93a8206e2e27ab815ce0f0f8fa761ec3b3c.jpg"}</t>
   </si>
   <si>
-    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "500 mm"}, "3": {"Length-2": "20 Inch"}, "4": {"Adapter enclosed": "A+B+C"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}}</t>
+    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "500 mm"}, "3": {"Length-2": "20 Inch"}, "4": {"Adapter enclosed": "A+B+C"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}, "7": {"Weight": "0.178 kg"}}</t>
   </si>
   <si>
     <t>566008</t>
@@ -245,7 +245,7 @@
     <t>{"0": "https://digital-assets.tecalliance.services/images/3200/93a14dacdbc943de59f2a8f52fe55c77c749f72f.jpg", "1": "https://digital-assets.tecalliance.services/images/3200/17e41a852cebf0da9c68163c594d952624504458.jpg", "2": "https://digital-assets.tecalliance.services/images/3200/2483a204b158930a47ca6e933def24297dca0a4f.jpg", "3": "https://digital-assets.tecalliance.services/images/3200/b9215e7ad2c8c76fe7b1b58d222b9dc8bf62df85.jpg", "4": "https://digital-assets.tecalliance.services/images/3200/72c4f93a8206e2e27ab815ce0f0f8fa761ec3b3c.jpg"}</t>
   </si>
   <si>
-    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "530 mm"}, "3": {"Length-2": "21 Inch"}, "4": {"Adapter enclosed": "A+B+E"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}}</t>
+    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "530 mm"}, "3": {"Length-2": "21 Inch"}, "4": {"Adapter enclosed": "A+B+E"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}, "7": {"Weight": "0.182 kg"}}</t>
   </si>
   <si>
     <t>566009</t>
@@ -263,7 +263,7 @@
     <t>{"0": "https://digital-assets.tecalliance.services/images/3200/9cd590f11ed5bdeeaabdb5c787399f40560db548.jpg", "1": "https://digital-assets.tecalliance.services/images/3200/17e41a852cebf0da9c68163c594d952624504458.jpg", "2": "https://digital-assets.tecalliance.services/images/3200/9ddf845abf1c0ed8ef9610f3580893202ca0fdce.jpg", "3": "https://digital-assets.tecalliance.services/images/3200/b9215e7ad2c8c76fe7b1b58d222b9dc8bf62df85.jpg", "4": "https://digital-assets.tecalliance.services/images/3200/72c4f93a8206e2e27ab815ce0f0f8fa761ec3b3c.jpg"}</t>
   </si>
   <si>
-    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "550 mm"}, "3": {"Length-2": "22 Inch"}, "4": {"Adapter enclosed": "A+B+C+E"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}}</t>
+    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "550 mm"}, "3": {"Length-2": "22 Inch"}, "4": {"Adapter enclosed": "A+B+C+E"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}, "7": {"Weight": "0.215 kg"}}</t>
   </si>
   <si>
     <t>566010</t>
@@ -281,7 +281,7 @@
     <t>{"0": "https://digital-assets.tecalliance.services/images/3200/882bb2c94929f15013dfbf1f2097b0069f7dd096.jpg", "1": "https://digital-assets.tecalliance.services/images/3200/17e41a852cebf0da9c68163c594d952624504458.jpg", "2": "https://digital-assets.tecalliance.services/images/3200/261802a47f2bc05cdcd73ea0c3ffbe11de20aa12.jpg", "3": "https://digital-assets.tecalliance.services/images/3200/b9215e7ad2c8c76fe7b1b58d222b9dc8bf62df85.jpg", "4": "https://digital-assets.tecalliance.services/images/3200/72c4f93a8206e2e27ab815ce0f0f8fa761ec3b3c.jpg"}</t>
   </si>
   <si>
-    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "580 mm"}, "3": {"Length-2": "23 Inch"}, "4": {"Adapter enclosed": "A+B"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}}</t>
+    <t>{"0": {"Wiper blade type": "Flat bar wiper blade"}, "1": {"Quantity": "1"}, "2": {"Length-1": "580 mm"}, "3": {"Length-2": "23 Inch"}, "4": {"Adapter enclosed": "A+B"}, "5": {"Styling": "with spoiler"}, "6": {"Blade material": "Silicone"}, "7": {"Weight": "0.218 kg"}}</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD659"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1358,14 +1358,14 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
         <v>23</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -1373,20 +1373,20 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="L2" t="b">
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -1417,35 +1417,35 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="L3" t="b">
+        <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -1476,35 +1476,35 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="L4" t="b">
+        <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -1535,35 +1535,35 @@
       <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="L5" t="b">
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>46</v>
@@ -1594,35 +1594,35 @@
       <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+      <c r="L6" t="b">
+        <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
         <v>52</v>
@@ -1653,35 +1653,35 @@
       <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>57</v>
       </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+      <c r="L7" t="b">
+        <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s">
         <v>58</v>
@@ -1712,35 +1712,35 @@
       <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
+        <v>62</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>63</v>
       </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+      <c r="L8" t="b">
+        <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
         <v>64</v>
@@ -1771,35 +1771,35 @@
       <c r="D9" t="s">
         <v>67</v>
       </c>
-      <c r="E9" t="b">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
+        <v>68</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>69</v>
       </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
+      <c r="L9" t="b">
+        <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s">
         <v>70</v>
@@ -1830,35 +1830,35 @@
       <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="b">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
+        <v>74</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>75</v>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="L10" t="b">
+        <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
         <v>76</v>
@@ -1889,35 +1889,35 @@
       <c r="D11" t="s">
         <v>79</v>
       </c>
-      <c r="E11" t="b">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
         <v>25</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>81</v>
       </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
+      <c r="L11" t="b">
+        <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s">
         <v>82</v>
